--- a/va_facility_data_2025-02-20/Overton Brooks Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Overton%20Brooks%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Overton Brooks Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Overton%20Brooks%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9e19e74318264811a107ea817ef6f356"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rde57c03709ef4f60982399b199f33b05"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc5e792ca75de4cd0acccbc3e00addde8"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R05422098b6754ca68857a61de29d0d52"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2d581c041f0045d7b3810e31e19b817f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R96586e41d3a442569427299dbcf59860"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R96ab1485e7b640ea9dcf8388ee67e0e6"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2a7154dbe2844d61859d4861798b649b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc90a2532317944598630e3029f1b4e14"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Ra487270a5720401fabc7d6ef7bd360b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc1c723cec7a449378d2e898253d96796"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R14ad340e729a4ee6b052f2ae43c5050f"/>
   </x:sheets>
 </x:workbook>
 </file>
